--- a/data/trans_camb/P8_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P8_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,65</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,98</t>
+          <t>4,15</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>1,5</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2,53</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>4,05</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>0,37</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-0,58</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-0,35</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>0,07</t>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0,89</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1,92</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>4,06</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 4,14</t>
+          <t>-4,56; 6,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,78; 3,24</t>
+          <t>-5,19; 5,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 3,72</t>
+          <t>-4,03; 6,35</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,3; 3,04</t>
+          <t>-1,7; 10,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 4,16</t>
+          <t>-5,43; 5,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 4,63</t>
+          <t>-3,85; 6,92</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 2,27</t>
+          <t>-3,2; 8,1</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 2,51</t>
+          <t>-1,82; 10,18</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 3,04</t>
+          <t>-3,45; 4,27</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-3,23; 4,95</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-1,94; 5,85</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-0,01; 8,56</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,6%</t>
+          <t>20,75%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-10,2%</t>
+          <t>4,25%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-2,78%</t>
+          <t>26,59%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-11,57%</t>
+          <t>79,92%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-1,02%</t>
+          <t>-3,2%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,33%</t>
+          <t>20,86%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-7,74%</t>
+          <t>35,21%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-4,66%</t>
+          <t>56,46%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>5,84%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>14,14%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>30,62%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>64,68%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-50,3; 102,56</t>
+          <t>-60,82; 225,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-55,97; 74,41</t>
+          <t>-66,63; 192,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-50,43; 86,73</t>
+          <t>-52,9; 234,07</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-49,81; 47,13</t>
+          <t>-26,93; 343,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-41,45; 65,79</t>
+          <t>-60,36; 103,75</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-38,89; 73,23</t>
+          <t>-41,13; 146,4</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-37,44; 38,85</t>
+          <t>-34,15; 179,29</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-34,02; 45,95</t>
+          <t>-20,69; 218,64</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-30,18; 50,76</t>
+          <t>-42,01; 95,61</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-37,55; 105,31</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-25,3; 128,88</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-4,98; 179,02</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,55</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,94</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,23</t>
+          <t>3,3</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,21</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-2,89</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,73</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>3,25</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,49</t>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1,08</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0,29</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>3,28</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 8,1</t>
+          <t>-7,55; 9,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 9,51</t>
+          <t>-5,73; 12,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 8,18</t>
+          <t>-6,51; 9,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,32; 1,24</t>
+          <t>-5,55; 11,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,69; 1,2</t>
+          <t>-5,03; 5,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,39; 0,49</t>
+          <t>-5,28; 4,85</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 2,87</t>
+          <t>-5,49; 4,55</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 3,79</t>
+          <t>-3,03; 9,11</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 2,99</t>
+          <t>-4,39; 5,5</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-3,66; 6,95</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-4,44; 5,43</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-2,42; 8,25</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>13,74%</t>
+          <t>6,88%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>37,36%</t>
+          <t>32,96%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>28,41%</t>
+          <t>16,94%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-33,34%</t>
+          <t>51,41%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-33,06%</t>
+          <t>-1,55%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-43,16%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-10,85%</t>
+          <t>-7,75%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>51,63%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-7,27%</t>
+          <t>2,34%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>17,06%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>4,54%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>51,59%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-57,04; 189,51</t>
+          <t>-83,04; 315,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-44,25; 207,03</t>
+          <t>-70,29; 381,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-46,65; 184,97</t>
+          <t>-73,2; 310,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-77,95; 30,48</t>
+          <t>-60,3; 380,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-78,43; 31,07</t>
+          <t>-58,49; 124,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-83,43; 14,45</t>
+          <t>-59,44; 121,21</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-53,81; 59,52</t>
+          <t>-64,56; 116,14</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-46,78; 75,64</t>
+          <t>-37,0; 213,83</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-51,66; 62,75</t>
+          <t>-53,32; 135,03</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-46,34; 162,37</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-51,84; 132,6</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-30,87; 190,1</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>2,17</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,37</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>3,69</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>-0,06</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-0,16</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-0,15</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>2,94</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,08; 10,5</t>
+          <t>-13,6; 8,02</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,16; 10,38</t>
+          <t>-13,72; 7,09</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,0; 10,57</t>
+          <t>-13,85; 6,84</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 4,12</t>
+          <t>-10,71; 12,09</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 2,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,95; 2,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,74; 5,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,79; 5,35</t>
+          <t>0,0; 15,19</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 5,6</t>
+          <t>-5,91; 3,72</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-5,95; 3,42</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-5,95; 3,47</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-2,21; 9,97</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,44%</t>
+          <t>-2,46%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>-7,17%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>-8,96%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-6,37%</t>
+          <t>63,66%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-16,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-23,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-1,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-3,53%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-2,38%</t>
+          <t>-3,45%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-9,49%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-8,53%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>170,36%</t>
         </is>
       </c>
     </row>
@@ -1223,17 +1412,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-80,91; 397,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-80,09; 386,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-79,79; 391,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1253,17 +1442,32 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-75,52; 283,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-76,75; 271,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-77,97; 287,72</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,4</t>
+          <t>3,57</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,96</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,59</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>3,68</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>0,22</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0,87</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>1,04</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>3,61</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 3,54</t>
+          <t>-3,43; 5,52</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 4,19</t>
+          <t>-3,04; 5,97</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 3,84</t>
+          <t>-3,16; 5,21</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 1,35</t>
+          <t>-0,99; 8,26</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 1,75</t>
+          <t>-3,05; 3,14</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 1,73</t>
+          <t>-2,37; 4,18</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 1,48</t>
+          <t>-2,09; 4,51</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 2,09</t>
+          <t>0,31; 7,87</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 1,96</t>
+          <t>-2,6; 2,84</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-1,95; 3,69</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-1,83; 3,71</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>0,67; 6,79</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>12,49%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>11,06%</t>
+          <t>18,09%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>10,43%</t>
+          <t>19,89%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-19,73%</t>
+          <t>65,12%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-13,5%</t>
+          <t>-2,9%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-14,53%</t>
+          <t>12,73%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-8,44%</t>
+          <t>16,5%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-2,07%</t>
+          <t>59,88%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-2,66%</t>
+          <t>3,82%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>14,99%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>17,76%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>61,91%</t>
         </is>
       </c>
     </row>
@@ -1439,59 +1688,81 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-37,8; 65,31</t>
+          <t>-48,01; 151,17</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-32,66; 77,71</t>
+          <t>-45,98; 161,41</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-31,76; 72,88</t>
+          <t>-44,49; 143,95</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-47,43; 26,22</t>
+          <t>-15,4; 228,83</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-42,63; 33,71</t>
+          <t>-42,18; 74,08</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-43,87; 33,7</t>
+          <t>-32,05; 91,31</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-35,34; 26,51</t>
+          <t>-29,25; 103,86</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-29,97; 36,59</t>
+          <t>2,8; 180,32</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-29,79; 34,36</t>
+          <t>-35,81; 60,5</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-28,76; 82,39</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-25,33; 81,61</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>8,95; 149,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
